--- a/Module5/TimesheetCS5010.xlsx
+++ b/Module5/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Flipped over a couple of the functions to HOFC and ran tests</t>
+  </si>
+  <si>
+    <t>Flipped over most of other functions to HOFC, some commenting</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Commenting, flipped over one more function</t>
+  </si>
+  <si>
+    <t>Did one of the maybe-number functions - took a while to figure out a reasonable pattern</t>
   </si>
 </sst>
 </file>
@@ -950,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,122 +1227,254 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <f>60+48</f>
+        <v>108</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9">
+        <f>A13</f>
+        <v>41685</v>
+      </c>
+      <c r="C14" s="10">
+        <f>D13</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <f>67</f>
+        <v>67</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9">
+        <f>A15</f>
+        <v>41685</v>
+      </c>
+      <c r="C16" s="10">
+        <f>D15</f>
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <f>30+10</f>
+        <v>40</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9">
+        <f>A17</f>
+        <v>41685</v>
+      </c>
+      <c r="C18" s="10">
+        <f>D17</f>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="4">
-        <f>SUMIF(G2:G14,"1",I2:I14)</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="G21" s="4">
+        <f>SUMIF(G2:G20,"1",I2:I20)</f>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="4">
-        <f>SUMIF(G3:G14,"2",I3:I14)</f>
+      <c r="G22" s="4">
+        <f>SUMIF(G3:G20,"2",I3:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="23" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="4">
-        <f>SUMIF(G3:G14,"3",I3:I14)</f>
+      <c r="G23" s="4">
+        <f>SUMIF(G3:G20,"3",I3:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="4">
-        <f>SUMIF(G3:G14,"4",I3:I14)</f>
+      <c r="G24" s="4">
+        <f>SUMIF(G3:G20,"4",I3:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3">
-        <f>G15/60</f>
-        <v>5.4333333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="G26" s="3">
+        <f>G21/60</f>
+        <v>9.0166666666666675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3">
-        <f>G16/60</f>
+      <c r="G27" s="3">
+        <f>G22/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="3">
-        <f>G17/60</f>
+      <c r="G28" s="3">
+        <f>G23/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3">
-        <f>G18/60</f>
+      <c r="G29" s="3">
+        <f>G24/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E34" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="9" t="str">
-        <f>A28</f>
+      <c r="B35" s="9" t="str">
+        <f>A34</f>
         <v>m/dd</v>
       </c>
-      <c r="C29" s="10" t="str">
-        <f>D28</f>
+      <c r="C35" s="10" t="str">
+        <f>D34</f>
         <v>hh:ss</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Module5/TimesheetCS5010.xlsx
+++ b/Module5/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Did one of the maybe-number functions - took a while to figure out a reasonable pattern</t>
+  </si>
+  <si>
+    <t>Fixed up last function (and watched olympics)</t>
   </si>
 </sst>
 </file>
@@ -962,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,125 +1359,168 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <f>A19</f>
+        <v>41686</v>
+      </c>
+      <c r="C20" s="10">
+        <f>D19</f>
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4">
-        <f>SUMIF(G2:G20,"1",I2:I20)</f>
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="G23" s="4">
+        <f>SUMIF(G2:G22,"1",I2:I22)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4">
-        <f>SUMIF(G3:G20,"2",I3:I20)</f>
+      <c r="G24" s="4">
+        <f>SUMIF(G3:G22,"2",I3:I22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="4">
-        <f>SUMIF(G3:G20,"3",I3:I20)</f>
+      <c r="G25" s="4">
+        <f>SUMIF(G3:G22,"3",I3:I22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="4">
-        <f>SUMIF(G3:G20,"4",I3:I20)</f>
+      <c r="G26" s="4">
+        <f>SUMIF(G3:G22,"4",I3:I22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G26" s="3">
-        <f>G21/60</f>
-        <v>9.0166666666666675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="3">
-        <f>G22/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G28" s="3">
         <f>G23/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.5166666666666675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" s="3">
         <f>G24/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3">
+        <f>G25/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3">
+        <f>G26/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E36" s="8">
         <v>0</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="9" t="str">
-        <f>A34</f>
+      <c r="B37" s="9" t="str">
+        <f>A36</f>
         <v>m/dd</v>
       </c>
-      <c r="C35" s="10" t="str">
-        <f>D34</f>
+      <c r="C37" s="10" t="str">
+        <f>D36</f>
         <v>hh:ss</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Module5/TimesheetCS5010.xlsx
+++ b/Module5/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Fixed up last function (and watched olympics)</t>
+  </si>
+  <si>
+    <t>Commenting, cleanup</t>
   </si>
 </sst>
 </file>
@@ -965,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,125 +1405,168 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <f>70</f>
+        <v>70</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <f>A21</f>
+        <v>41686</v>
+      </c>
+      <c r="C22" s="10">
+        <f>D21</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="4">
-        <f>SUMIF(G2:G22,"1",I2:I22)</f>
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="G25" s="4">
+        <f>SUMIF(G2:G24,"1",I2:I24)</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="4">
-        <f>SUMIF(G3:G22,"2",I3:I22)</f>
+      <c r="G26" s="4">
+        <f>SUMIF(G3:G24,"2",I3:I24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="4">
-        <f>SUMIF(G3:G22,"3",I3:I22)</f>
+      <c r="G27" s="4">
+        <f>SUMIF(G3:G24,"3",I3:I24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="4">
-        <f>SUMIF(G3:G22,"4",I3:I22)</f>
+      <c r="G28" s="4">
+        <f>SUMIF(G3:G24,"4",I3:I24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G28" s="3">
-        <f>G23/60</f>
-        <v>9.5166666666666675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="3">
-        <f>G24/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G30" s="3">
         <f>G25/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.683333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="3">
         <f>G26/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3">
+        <f>G27/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3">
+        <f>G28/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E38" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="9" t="str">
-        <f>A36</f>
+      <c r="B39" s="9" t="str">
+        <f>A38</f>
         <v>m/dd</v>
       </c>
-      <c r="C37" s="10" t="str">
-        <f>D36</f>
+      <c r="C39" s="10" t="str">
+        <f>D38</f>
         <v>hh:ss</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Module5/TimesheetCS5010.xlsx
+++ b/Module5/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Commenting, cleanup</t>
+  </si>
+  <si>
+    <t>Problem #2 - getting behavior to match new spec</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,125 +1451,305 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>193</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <f>+A25</f>
+        <v>41687</v>
+      </c>
+      <c r="C24" s="10">
+        <f>D23</f>
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="I25" s="8">
+        <f>70</f>
+        <v>70</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9">
+        <f>A25</f>
+        <v>41687</v>
+      </c>
+      <c r="C26" s="10">
+        <f>D25</f>
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="I27" s="8">
+        <f>60+30</f>
+        <v>90</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>30</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+      <c r="I29" s="8">
+        <v>30</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="9">
+        <f>A27</f>
+        <v>41687</v>
+      </c>
+      <c r="C30" s="10">
+        <f>D29</f>
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4">
-        <f>SUMIF(G2:G24,"1",I2:I24)</f>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="G33" s="4">
+        <f>SUMIF(G2:G32,"1",I2:I32)</f>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="4">
-        <f>SUMIF(G3:G24,"2",I3:I24)</f>
+      <c r="G34" s="4">
+        <f>SUMIF(G3:G32,"2",I3:I32)</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <f>SUMIF(G3:G32,"3",I3:I32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4">
-        <f>SUMIF(G3:G24,"3",I3:I24)</f>
+    <row r="36" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4">
+        <f>SUMIF(G3:G32,"4",I3:I32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4">
-        <f>SUMIF(G3:G24,"4",I3:I24)</f>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3">
+        <f>G33/60</f>
+        <v>11.183333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="3">
+        <f>G34/60</f>
+        <v>6.3833333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3">
+        <f>G35/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
-        <f>G25/60</f>
-        <v>10.683333333333334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="3">
-        <f>G26/60</f>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3">
+        <f>G36/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="3">
-        <f>G27/60</f>
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="3">
-        <f>G28/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K46" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="9" t="str">
-        <f>A38</f>
+      <c r="B47" s="9" t="str">
+        <f>A46</f>
         <v>m/dd</v>
       </c>
-      <c r="C39" s="10" t="str">
-        <f>D38</f>
+      <c r="C47" s="10" t="str">
+        <f>D46</f>
         <v>hh:ss</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Module5/TimesheetCS5010.xlsx
+++ b/Module5/TimesheetCS5010.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doyle\Documents\GitHub\CS5010_NotesEtc\Module5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="27795" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +121,9 @@
   </si>
   <si>
     <t>Problem #2 - getting behavior to match new spec</t>
+  </si>
+  <si>
+    <t>Total Time On Task Q1 (minutes)</t>
   </si>
 </sst>
 </file>
@@ -727,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +770,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1607,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D29" s="1">
-        <v>0.62777777777777777</v>
+        <v>0.6875</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -1624,7 +1632,7 @@
       </c>
       <c r="C30" s="10">
         <f>D29</f>
-        <v>0.62777777777777777</v>
+        <v>0.6875</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
@@ -1641,7 +1649,7 @@
     </row>
     <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G33" s="4">
         <f>SUMIF(G2:G32,"1",I2:I32)</f>
